--- a/Statistical analyses/Tukey posthoc/CBH/Km, timePoint x Precipitation.xlsx
+++ b/Statistical analyses/Tukey posthoc/CBH/Km, timePoint x Precipitation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\CBH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C00ADC-FF4C-4890-A542-A6BB03A40E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Km" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +129,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -453,13 +515,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.3807</v>
+        <v>0.38069999999999998</v>
       </c>
       <c r="D2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E2">
-        <v>-0.1267</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="F2">
         <v>0.8881</v>
@@ -468,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -476,22 +538,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.0939</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="D3">
         <v>0.9</v>
       </c>
       <c r="E3">
-        <v>-0.4135</v>
+        <v>-0.41349999999999998</v>
       </c>
       <c r="F3">
-        <v>0.6012999999999999</v>
+        <v>0.60129999999999995</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -499,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.0538</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="D4">
         <v>0.9</v>
@@ -508,13 +570,13 @@
         <v>-0.4536</v>
       </c>
       <c r="F4">
-        <v>0.5612</v>
+        <v>0.56120000000000003</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -522,22 +584,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>-0.1649</v>
+        <v>-0.16489999999999999</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
       <c r="E5">
-        <v>-0.6722</v>
+        <v>-0.67220000000000002</v>
       </c>
       <c r="F5">
-        <v>0.3425</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -548,10 +610,10 @@
         <v>-0.2888</v>
       </c>
       <c r="D6">
-        <v>0.6115</v>
+        <v>0.61150000000000004</v>
       </c>
       <c r="E6">
-        <v>-0.7962</v>
+        <v>-0.79620000000000002</v>
       </c>
       <c r="F6">
         <v>0.2185</v>
@@ -560,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,22 +630,22 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>-0.0459</v>
+        <v>-4.5900000000000003E-2</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
-        <v>-0.5533</v>
+        <v>-0.55330000000000001</v>
       </c>
       <c r="F7">
-        <v>0.4615</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -591,22 +653,22 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>-0.0242</v>
+        <v>-2.4199999999999999E-2</v>
       </c>
       <c r="D8">
         <v>0.9</v>
       </c>
       <c r="E8">
-        <v>-0.5316</v>
+        <v>-0.53159999999999996</v>
       </c>
       <c r="F8">
-        <v>0.4831</v>
+        <v>0.48309999999999997</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -617,19 +679,19 @@
         <v>-0.2868</v>
       </c>
       <c r="D9">
-        <v>0.6187</v>
+        <v>0.61870000000000003</v>
       </c>
       <c r="E9">
-        <v>-0.7942</v>
+        <v>-0.79420000000000002</v>
       </c>
       <c r="F9">
-        <v>0.2206</v>
+        <v>0.22059999999999999</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -637,68 +699,68 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>-0.3269</v>
+        <v>-0.32690000000000002</v>
       </c>
       <c r="D10">
         <v>0.4743</v>
       </c>
       <c r="E10">
-        <v>-0.8343</v>
+        <v>-0.83430000000000004</v>
       </c>
       <c r="F10">
-        <v>0.1805</v>
+        <v>0.18049999999999999</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>-0.5456</v>
-      </c>
-      <c r="D11">
-        <v>0.0267</v>
-      </c>
-      <c r="E11">
-        <v>-1.053</v>
-      </c>
-      <c r="F11">
-        <v>-0.0382</v>
-      </c>
-      <c r="G11" t="b">
+      <c r="C11" s="2">
+        <v>-0.54559999999999997</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1.0529999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-3.8199999999999998E-2</v>
+      </c>
+      <c r="G11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>-0.6696</v>
-      </c>
-      <c r="D12">
-        <v>0.0027</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="2">
+        <v>-0.66959999999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="E12" s="2">
         <v>-1.177</v>
       </c>
-      <c r="F12">
-        <v>-0.1622</v>
-      </c>
-      <c r="G12" t="b">
+      <c r="F12" s="2">
+        <v>-0.16220000000000001</v>
+      </c>
+      <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -706,22 +768,22 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.4266</v>
+        <v>-0.42659999999999998</v>
       </c>
       <c r="D13">
-        <v>0.1614</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="E13">
-        <v>-0.9340000000000001</v>
+        <v>-0.93400000000000005</v>
       </c>
       <c r="F13">
-        <v>0.0808</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -729,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.405</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="D14">
-        <v>0.2115</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="E14">
-        <v>-0.9124</v>
+        <v>-0.91239999999999999</v>
       </c>
       <c r="F14">
         <v>0.1024</v>
@@ -744,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -752,22 +814,22 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>-0.0401</v>
+        <v>-4.0099999999999997E-2</v>
       </c>
       <c r="D15">
         <v>0.9</v>
       </c>
       <c r="E15">
-        <v>-0.5475</v>
+        <v>-0.54749999999999999</v>
       </c>
       <c r="F15">
-        <v>0.4673</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -775,22 +837,22 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>-0.2588</v>
+        <v>-0.25879999999999997</v>
       </c>
       <c r="D16">
-        <v>0.7191</v>
+        <v>0.71909999999999996</v>
       </c>
       <c r="E16">
-        <v>-0.7662</v>
+        <v>-0.76619999999999999</v>
       </c>
       <c r="F16">
-        <v>0.2486</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -798,10 +860,10 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>-0.3827</v>
+        <v>-0.38269999999999998</v>
       </c>
       <c r="D17">
-        <v>0.2738</v>
+        <v>0.27379999999999999</v>
       </c>
       <c r="E17">
         <v>-0.8901</v>
@@ -813,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -821,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="C18">
-        <v>-0.1398</v>
+        <v>-0.13980000000000001</v>
       </c>
       <c r="D18">
         <v>0.9</v>
@@ -830,13 +892,13 @@
         <v>-0.6472</v>
       </c>
       <c r="F18">
-        <v>0.3676</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -850,16 +912,16 @@
         <v>0.9</v>
       </c>
       <c r="E19">
-        <v>-0.6254999999999999</v>
+        <v>-0.62549999999999994</v>
       </c>
       <c r="F19">
-        <v>0.3892</v>
+        <v>0.38919999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -867,22 +929,22 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>-0.2187</v>
+        <v>-0.21870000000000001</v>
       </c>
       <c r="D20">
-        <v>0.8625</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="E20">
-        <v>-0.7261</v>
+        <v>-0.72609999999999997</v>
       </c>
       <c r="F20">
-        <v>0.2887</v>
+        <v>0.28870000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -893,19 +955,19 @@
         <v>-0.3427</v>
       </c>
       <c r="D21">
-        <v>0.4139</v>
+        <v>0.41389999999999999</v>
       </c>
       <c r="E21">
-        <v>-0.8501</v>
+        <v>-0.85009999999999997</v>
       </c>
       <c r="F21">
-        <v>0.1647</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -913,22 +975,22 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>-0.0997</v>
+        <v>-9.9699999999999997E-2</v>
       </c>
       <c r="D22">
         <v>0.9</v>
       </c>
       <c r="E22">
-        <v>-0.6071</v>
+        <v>-0.60709999999999997</v>
       </c>
       <c r="F22">
-        <v>0.4077</v>
+        <v>0.40770000000000001</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -936,22 +998,22 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>-0.0781</v>
+        <v>-7.8100000000000003E-2</v>
       </c>
       <c r="D23">
         <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-0.5855</v>
+        <v>-0.58550000000000002</v>
       </c>
       <c r="F23">
-        <v>0.4293</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -965,16 +1027,16 @@
         <v>0.9</v>
       </c>
       <c r="E24">
-        <v>-0.6314</v>
+        <v>-0.63139999999999996</v>
       </c>
       <c r="F24">
-        <v>0.3834</v>
+        <v>0.38340000000000002</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -982,22 +1044,22 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D25">
         <v>0.9</v>
       </c>
       <c r="E25">
-        <v>-0.3884</v>
+        <v>-0.38840000000000002</v>
       </c>
       <c r="F25">
-        <v>0.6264</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1011,16 +1073,16 @@
         <v>0.9</v>
       </c>
       <c r="E26">
-        <v>-0.3668</v>
+        <v>-0.36680000000000001</v>
       </c>
       <c r="F26">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1028,22 +1090,22 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D27">
-        <v>0.7756999999999999</v>
+        <v>0.77569999999999995</v>
       </c>
       <c r="E27">
-        <v>-0.2644</v>
+        <v>-0.26440000000000002</v>
       </c>
       <c r="F27">
-        <v>0.7504</v>
+        <v>0.75039999999999996</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1054,19 +1116,19 @@
         <v>0.2646</v>
       </c>
       <c r="D28">
-        <v>0.6983</v>
+        <v>0.69830000000000003</v>
       </c>
       <c r="E28">
-        <v>-0.2428</v>
+        <v>-0.24279999999999999</v>
       </c>
       <c r="F28">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1074,16 +1136,16 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>0.0216</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="D29">
         <v>0.9</v>
       </c>
       <c r="E29">
-        <v>-0.4858</v>
+        <v>-0.48580000000000001</v>
       </c>
       <c r="F29">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
